--- a/UnitTests/Tests/PricingEngines.xlsx
+++ b/UnitTests/Tests/PricingEngines.xlsx
@@ -666,7 +666,7 @@
         <v>0.38292492254802624</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -682,7 +682,7 @@
         <v>0.30853753872598688</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D55" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D55" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4">
@@ -777,9 +777,9 @@
       <c r="B10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E10" t="e">
         <f>_xll.qlBlackFormula2(G10,1,1,1,0)</f>
@@ -787,7 +787,7 @@
       </c>
       <c r="G10" t="str">
         <f>_xll.qlStrikedTypePayoff(,"vanilla","call",1,5)</f>
-        <v>obj_00003#0000</v>
+        <v>obj_00067#0000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,9 +797,9 @@
       <c r="B11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E11" t="e">
         <f>_xll.qlBlackFormulaCashItmProbability2(G10)</f>
@@ -813,9 +813,9 @@
       <c r="B12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E12" t="e">
         <f>_xll.qlBlackFormulaImpliedStdDevApproximation2(G10)</f>
@@ -829,9 +829,9 @@
       <c r="B13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E13" t="e">
         <f>_xll.qlBlackFormulaImpliedStdDev2(G10)</f>
@@ -845,9 +845,9 @@
       <c r="B14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E14" t="e">
         <f>_xll.qlBlackFormulaStdDevDerivative2(G10)</f>
@@ -861,9 +861,9 @@
       <c r="B15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E15" t="e">
         <f>_xll.qlBachelierBlackFormula2(G10)</f>
@@ -1307,11 +1307,11 @@
       </c>
       <c r="G42" t="str">
         <f>_xll.qlGeneralizedBlackScholesProcess(,I42,1,"actual/360",K42,1,1)</f>
-        <v>obj_00018#0000</v>
+        <v>obj_0007e#0000</v>
       </c>
       <c r="I42" t="str">
         <f>_xll.qlBlackConstantVol(,K42,"target",1,"actual/360")</f>
-        <v>obj_00017#0000</v>
+        <v>obj_0007d#0000</v>
       </c>
       <c r="K42">
         <f>K41+1</f>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G43" t="str">
         <f>_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
-        <v>obj_00006#0000</v>
+        <v>obj_0006b#0000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G45" t="str">
         <f>_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_0006a#0000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G47" t="str">
         <f>_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","shiftedlognormal",0)</f>
-        <v>obj_00004#0000</v>
+        <v>obj_00068#0000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G49" t="str">
         <f>_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","normal",0)</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00066#0000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G51" t="str">
         <f>_xll.qlHullWhite(,G43,1,1)</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_00076#0000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G55" t="str">
         <f>_xll.qlModelG2(,G43)</f>
-        <v>obj_00010#0000</v>
+        <v>obj_00075#0000</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/PricingEngines.xlsx
+++ b/UnitTests/Tests/PricingEngines.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$55</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -261,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,12 +323,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,9 +406,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,6 +458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,7 +650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -617,7 +659,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -669,9 +711,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlBlackFormula("call",1,1,1,1,0)</f>
-        <v>0.38292492254802624</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlBlackFormula("call",1,1,1,1,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,9 +727,9 @@
         <f t="shared" ref="D4:D55" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlBlackFormulaCashItmProbability("call",1,1,1,0)</f>
-        <v>0.30853753872598688</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlBlackFormulaCashItmProbability("call",1,1,1,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,9 +743,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlBlackFormulaImpliedStdDevApproximation("call",1,1,1,1,0)</f>
-        <v>2.5066282746310002</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlBlackFormulaImpliedStdDevApproximation("call",1,1,1,1,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,9 +759,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlBlackFormulaImpliedStdDev("call",1,1)</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlBlackFormulaImpliedStdDev("call",1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,9 +775,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlBlackFormulaStdDevDerivative(1,1,1,1,0)</f>
-        <v>0.35206532676429952</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlBlackFormulaStdDevDerivative(1,1,1,1,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,9 +791,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlBachelierBlackFormula("call",1,1,1,1)</f>
-        <v>0.3989422804014327</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlBachelierBlackFormula("call",1,1,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,9 +807,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9">
-        <f>_xll.qlBachelierBlackFormulaImpliedVol("call",1,1,1,1,1)</f>
-        <v>2.5066282746309976</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlBachelierBlackFormulaImpliedVol("call",1,1,1,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,12 +824,12 @@
         <v>ERROR</v>
       </c>
       <c r="E10" t="e">
-        <f>_xll.qlBlackFormula2(G10,1,1,1,0)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xll.qlStrikedTypePayoff(,"vanilla","call",1,5)</f>
-        <v>obj_00067#0000</v>
+        <f ca="1">_xll.qlBlackFormula2(G10,1,1,1,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" t="e">
+        <f ca="1">_xll.qlStrikedTypePayoff(,"vanilla","call",1,5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,8 +844,8 @@
         <v>ERROR</v>
       </c>
       <c r="E11" t="e">
-        <f>_xll.qlBlackFormulaCashItmProbability2(G10)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBlackFormulaCashItmProbability2(G10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,8 +860,8 @@
         <v>ERROR</v>
       </c>
       <c r="E12" t="e">
-        <f>_xll.qlBlackFormulaImpliedStdDevApproximation2(G10)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBlackFormulaImpliedStdDevApproximation2(G10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,8 +876,8 @@
         <v>ERROR</v>
       </c>
       <c r="E13" t="e">
-        <f>_xll.qlBlackFormulaImpliedStdDev2(G10)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBlackFormulaImpliedStdDev2(G10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,8 +892,8 @@
         <v>ERROR</v>
       </c>
       <c r="E14" t="e">
-        <f>_xll.qlBlackFormulaStdDevDerivative2(G10)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBlackFormulaStdDevDerivative2(G10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,8 +908,8 @@
         <v>ERROR</v>
       </c>
       <c r="E15" t="e">
-        <f>_xll.qlBachelierBlackFormula2(G10)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBachelierBlackFormula2(G10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,9 +923,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlBlackCalculatorValue(E34)</f>
-        <v>0.38292492254802624</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlBlackCalculatorValue(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,9 +939,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlBlackCalculatorDeltaForward(E34)</f>
-        <v>0.69146246127401323</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlBlackCalculatorDeltaForward(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,9 +955,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E18">
-        <f>_xll.qlBlackCalculatorDelta(E34,1)</f>
-        <v>0.69146246127401323</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlBlackCalculatorDelta(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,9 +971,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlBlackCalculatorElasticityForward(E34)</f>
-        <v>1.8057389857858896</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlBlackCalculatorElasticityForward(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,9 +987,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlBlackCalculatorElasticity(E34,1)</f>
-        <v>1.8057389857858896</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlBlackCalculatorElasticity(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,9 +1003,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlBlackCalculatorGammaForward(E34)</f>
-        <v>0.35206532676429947</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlBlackCalculatorGammaForward(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,9 +1019,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlBlackCalculatorGamma(E34,1)</f>
-        <v>0.35206532676429947</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlBlackCalculatorGamma(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,9 +1035,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E23">
-        <f>_xll.qlBlackCalculatorTheta(E34,1,1)</f>
-        <v>-0.17603266338214973</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlBlackCalculatorTheta(E34,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,9 +1051,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E24">
-        <f>_xll.qlBlackCalculatorThetaPerDay(E34,1,1)</f>
-        <v>-4.8228126954013624E-4</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlBlackCalculatorThetaPerDay(E34,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,9 +1067,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E25">
-        <f>_xll.qlBlackCalculatorVega(E34,1)</f>
-        <v>0.35206532676429952</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlBlackCalculatorVega(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,9 +1083,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E26">
-        <f>_xll.qlBlackCalculatorRho(E34,1)</f>
-        <v>0.30853753872598699</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlBlackCalculatorRho(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,9 +1099,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlBlackCalculatorDividendRho(E34,1)</f>
-        <v>-0.69146246127401323</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlBlackCalculatorDividendRho(E34,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,9 +1115,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlBlackCalculatorItmCashProbability(E34)</f>
-        <v>0.30853753872598688</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlBlackCalculatorItmCashProbability(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,9 +1131,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlBlackCalculatorItmAssetProbability(E34)</f>
-        <v>0.69146246127401312</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlBlackCalculatorItmAssetProbability(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,9 +1147,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlBlackCalculatorStrikeSensitivity(E34)</f>
-        <v>-0.30853753872598688</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlBlackCalculatorStrikeSensitivity(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,9 +1163,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31">
-        <f>_xll.qlBlackCalculatorAlpha(E34)</f>
-        <v>0.69146246127401312</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlBlackCalculatorAlpha(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,9 +1179,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32">
-        <f>_xll.qlBlackCalculatorBeta(E34)</f>
-        <v>-0.30853753872598688</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlBlackCalculatorBeta(E34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,9 +1195,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E33" t="str">
-        <f>_xll.qlBlackCalculator2("pe01",G10,1,1,1)</f>
-        <v>pe01#0000</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlBlackCalculator2("pe01",G10,1,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,9 +1211,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34" t="str">
-        <f>_xll.qlBlackCalculator("pe02","call",1,1,1,1)</f>
-        <v>pe02#0000</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlBlackCalculator("pe02","call",1,1,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1185,9 +1227,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E35">
-        <f>_xll.qlBlackScholesCalculatorDelta(E41)</f>
-        <v>0.69146246127401323</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculatorDelta(E41)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,9 +1243,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E36">
-        <f>_xll.qlBlackScholesCalculatorElasticity(E41)</f>
-        <v>1.8057389857858896</v>
+      <c r="E36" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculatorElasticity(E41)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1217,9 +1259,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E37">
-        <f>_xll.qlBlackScholesCalculatorGamma(E41)</f>
-        <v>0.35206532676429947</v>
+      <c r="E37" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculatorGamma(E41)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,9 +1275,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E38">
-        <f>_xll.qlBlackScholesCalculatorTheta(E41,1)</f>
-        <v>-0.17603266338214973</v>
+      <c r="E38" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculatorTheta(E41,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1249,9 +1291,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E39">
-        <f>_xll.qlBlackScholesCalculatorThetaPerDay(E41,1)</f>
-        <v>-4.8228126954013624E-4</v>
+      <c r="E39" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculatorThetaPerDay(E41,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,9 +1307,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E40" t="str">
-        <f>_xll.qlBlackScholesCalculator2("pe03",G10,1,1,1,1)</f>
-        <v>pe03#0000</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculator2("pe03",G10,1,1,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1281,13 +1323,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41" t="str">
-        <f>_xll.qlBlackScholesCalculator("pe04","call",1,1,1,1,1)</f>
-        <v>pe04#0000</v>
-      </c>
-      <c r="K41">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlBlackScholesCalculator("pe04","call",1,1,1,1,1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K41" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,21 +1343,21 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E42" t="str">
-        <f>_xll.qlPricingEngine("pe05","ae",G42)</f>
-        <v>pe05#0000</v>
-      </c>
-      <c r="G42" t="str">
-        <f>_xll.qlGeneralizedBlackScholesProcess(,I42,1,"actual/360",K42,1,1)</f>
-        <v>obj_0007e#0000</v>
-      </c>
-      <c r="I42" t="str">
-        <f>_xll.qlBlackConstantVol(,K42,"target",1,"actual/360")</f>
-        <v>obj_0007d#0000</v>
-      </c>
-      <c r="K42">
-        <f>K41+1</f>
-        <v>42645</v>
+      <c r="E42" t="e">
+        <f ca="1">_xll.qlPricingEngine("pe05","ae",G42)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G42" t="e">
+        <f ca="1">_xll.qlGeneralizedBlackScholesProcess(,I42,1,"actual/360",K42,1,1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I42" t="e">
+        <f ca="1">_xll.qlBlackConstantVol(,K42,"target",1,"actual/360")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K42" t="e">
+        <f ca="1">K41+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1329,13 +1371,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E43" t="str">
-        <f>_xll.qlDiscountingSwapEngine("pe06",G43,TRUE,K42,K42)</f>
-        <v>pe06#0000</v>
-      </c>
-      <c r="G43" t="str">
-        <f>_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
-        <v>obj_0006b#0000</v>
+      <c r="E43" t="e">
+        <f ca="1">_xll.qlDiscountingSwapEngine("pe06",G43,TRUE,K42,K42)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G43" t="e">
+        <f ca="1">_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,9 +1391,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E44" t="str">
-        <f>_xll.qlBinomialPricingEngine("pe07","fda",G42,2)</f>
-        <v>pe07#0000</v>
+      <c r="E44" t="e">
+        <f ca="1">_xll.qlBinomialPricingEngine("pe07","fda",G42,2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1365,13 +1407,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E45" t="str">
-        <f>_xll.qlBlackSwaptionEngine("pe08",G43,G45,0)</f>
-        <v>pe08#0000</v>
-      </c>
-      <c r="G45" t="str">
-        <f>_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
-        <v>obj_0006a#0000</v>
+      <c r="E45" t="e">
+        <f ca="1">_xll.qlBlackSwaptionEngine("pe08",G43,G45,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G45" t="e">
+        <f ca="1">_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1385,9 +1427,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E46" t="str">
-        <f>_xll.qlBlackSwaptionEngine2("pe09",G43,1,0,"actual/360")</f>
-        <v>pe09#0000</v>
+      <c r="E46" t="e">
+        <f ca="1">_xll.qlBlackSwaptionEngine2("pe09",G43,1,0,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,13 +1443,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E47" t="str">
-        <f>_xll.qlBlackCapFloorEngine("pe10",G43,G47,0)</f>
-        <v>pe10#0000</v>
-      </c>
-      <c r="G47" t="str">
-        <f>_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","shiftedlognormal",0)</f>
-        <v>obj_00068#0000</v>
+      <c r="E47" t="e">
+        <f ca="1">_xll.qlBlackCapFloorEngine("pe10",G43,G47,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G47" t="e">
+        <f ca="1">_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","shiftedlognormal",0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1421,9 +1463,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E48" t="str">
-        <f>_xll.qlBlackCapFloorEngine2("pe11",G43,1,0,"actual/360")</f>
-        <v>pe11#0000</v>
+      <c r="E48" t="e">
+        <f ca="1">_xll.qlBlackCapFloorEngine2("pe11",G43,1,0,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,13 +1479,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E49" t="str">
-        <f>_xll.qlBachelierCapFloorEngine("pe12",G43,G49)</f>
-        <v>pe12#0000</v>
-      </c>
-      <c r="G49" t="str">
-        <f>_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","normal",0)</f>
-        <v>obj_00066#0000</v>
+      <c r="E49" t="e">
+        <f ca="1">_xll.qlBachelierCapFloorEngine("pe12",G43,G49)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G49" t="e">
+        <f ca="1">_xll.qlConstantOptionletVolatility(,0,"target","mf",1,"actual/360","normal",0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,9 +1499,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E50" t="str">
-        <f>_xll.qlBachelierCapFloorEngine2("pe13",G43,1,"actual/360")</f>
-        <v>pe13#0000</v>
+      <c r="E50" t="e">
+        <f ca="1">_xll.qlBachelierCapFloorEngine2("pe13",G43,1,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,13 +1515,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E51" t="str">
-        <f>_xll.qlAnalyticCapFloorEngine("pe14",G51)</f>
-        <v>pe14#0000</v>
-      </c>
-      <c r="G51" t="str">
-        <f>_xll.qlHullWhite(,G43,1,1)</f>
-        <v>obj_00076#0000</v>
+      <c r="E51" t="e">
+        <f ca="1">_xll.qlAnalyticCapFloorEngine("pe14",G51)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G51" t="e">
+        <f ca="1">_xll.qlHullWhite(,G43,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,9 +1535,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E52" t="str">
-        <f>_xll.qlBondEngine("pe15",G43)</f>
-        <v>pe15#0000</v>
+      <c r="E52" t="e">
+        <f ca="1">_xll.qlBondEngine("pe15",G43)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,9 +1551,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E53" t="str">
-        <f>_xll.qlJamshidianSwaptionEngine("pe16",G51,G43)</f>
-        <v>pe16#0000</v>
+      <c r="E53" t="e">
+        <f ca="1">_xll.qlJamshidianSwaptionEngine("pe16",G51,G43)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,9 +1567,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E54" t="str">
-        <f>_xll.qlTreeSwaptionEngine("pe17",G51,2,G43)</f>
-        <v>pe17#0000</v>
+      <c r="E54" t="e">
+        <f ca="1">_xll.qlTreeSwaptionEngine("pe17",G51,2,G43)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1541,13 +1583,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E55" t="str">
-        <f>_xll.qlModelG2SwaptionEngine("pe18",G55)</f>
-        <v>pe18#0000</v>
-      </c>
-      <c r="G55" t="str">
-        <f>_xll.qlModelG2(,G43)</f>
-        <v>obj_00075#0000</v>
+      <c r="E55" t="e">
+        <f ca="1">_xll.qlModelG2SwaptionEngine("pe18",G55)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G55" t="e">
+        <f ca="1">_xll.qlModelG2(,G43)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1557,26 +1599,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
